--- a/biology/Médecine/Lucien_Israël_(psychanalyste)/Lucien_Israël_(psychanalyste).xlsx
+++ b/biology/Médecine/Lucien_Israël_(psychanalyste)/Lucien_Israël_(psychanalyste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucien_Isra%C3%ABl_(psychanalyste)</t>
+          <t>Lucien_Israël_(psychanalyste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucien Israël (né le 14 juin 1925 à Boulay-Moselle et mort le 18 janvier 1996 à Strasbourg) est un psychiatre et psychanalyste français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucien_Isra%C3%ABl_(psychanalyste)</t>
+          <t>Lucien_Israël_(psychanalyste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une région frontalière bilingue, dans une famille juive traditionaliste, il est agrégé de médecine et de psychiatrie, puis fait une carrière de professeur de psychiatrie à l’université de Strasbourg et comme chef de service au centre hospitalier de Strasbourg. 
-Lucien Israël fait son analyse avec Didier Anzieu et François Perrier et fait son analyse de contrôle avec Jacques Lacan[1]. Il exerce comme psychanalyste à partir de 1954 et applique également la psychanalyse à la psychologie médicale. Inspiré par l'œuvre de Lacan, il donne à Strasbourg un séminaire de psychanalyse dont plusieurs transcriptions ont été éditées. Il est membre de l’École freudienne de Paris, jusqu’à sa dissolution.
-Pédagogue au franc parler[2], privilégiant l'enseignement oral et les questions cliniques, il est à l'origine d'une forte implantation de la psychanalyse à Strasbourg et dans l'est de la France[1].
+Lucien Israël fait son analyse avec Didier Anzieu et François Perrier et fait son analyse de contrôle avec Jacques Lacan. Il exerce comme psychanalyste à partir de 1954 et applique également la psychanalyse à la psychologie médicale. Inspiré par l'œuvre de Lacan, il donne à Strasbourg un séminaire de psychanalyse dont plusieurs transcriptions ont été éditées. Il est membre de l’École freudienne de Paris, jusqu’à sa dissolution.
+Pédagogue au franc parler, privilégiant l'enseignement oral et les questions cliniques, il est à l'origine d'une forte implantation de la psychanalyse à Strasbourg et dans l'est de la France.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucien_Isra%C3%ABl_(psychanalyste)</t>
+          <t>Lucien_Israël_(psychanalyste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le médecin face au malade, Dessard, 1968.
 L'hystérique, le sexe et le médecin, Masson, 1976  (ISBN 2294007271).
